--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -12,14 +12,17 @@
     <sheet name="meth_method" sheetId="2" r:id="rId3"/>
     <sheet name="add_login_data" sheetId="4" r:id="rId4"/>
     <sheet name="add_role" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="authorization_data" sheetId="6" r:id="rId6"/>
+    <sheet name="add_dep" sheetId="7" r:id="rId7"/>
+    <sheet name="del_dep" sheetId="9" r:id="rId8"/>
+    <sheet name="add_authori_res" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AD域IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,15 +152,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统管理员,bm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ad域用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yw123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行的操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+  </si>
+  <si>
+    <t>资源名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>归属部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debian</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux资源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.182</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows2008 域控服务器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.240</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑方式的value值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源账号名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号口令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认口令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameAndpass</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root.1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt,bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +334,47 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +384,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +509,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,22 +834,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -656,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -674,7 +877,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -693,7 +896,7 @@
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -708,13 +911,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
@@ -743,7 +946,7 @@
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -821,27 +1024,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2">
         <v>12345678</v>
@@ -858,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -877,7 +1080,7 @@
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -892,13 +1095,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
@@ -907,11 +1110,11 @@
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -929,11 +1132,11 @@
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -951,11 +1154,11 @@
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -964,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4">
         <v>2</v>
@@ -975,11 +1178,11 @@
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -997,11 +1200,11 @@
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1014,18 +1217,18 @@
         <v>8</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1038,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -1053,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1068,23 +1271,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1095,14 +1298,378 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="11">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -10,19 +10,21 @@
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
     <sheet name="common_user" sheetId="1" r:id="rId2"/>
     <sheet name="meth_method" sheetId="2" r:id="rId3"/>
-    <sheet name="add_login_data" sheetId="4" r:id="rId4"/>
-    <sheet name="add_role" sheetId="5" r:id="rId5"/>
-    <sheet name="authorization_data" sheetId="6" r:id="rId6"/>
-    <sheet name="add_dep" sheetId="7" r:id="rId7"/>
-    <sheet name="del_dep" sheetId="9" r:id="rId8"/>
-    <sheet name="add_authori_res" sheetId="8" r:id="rId9"/>
+    <sheet name="add_role" sheetId="5" r:id="rId4"/>
+    <sheet name="add_dep" sheetId="7" r:id="rId5"/>
+    <sheet name="del_dep" sheetId="9" r:id="rId6"/>
+    <sheet name="add_authori_res" sheetId="8" r:id="rId7"/>
+    <sheet name="add_user_group" sheetId="10" r:id="rId8"/>
+    <sheet name="del_user_group" sheetId="11" r:id="rId9"/>
+    <sheet name="add_res_group" sheetId="12" r:id="rId10"/>
+    <sheet name="del_res_group" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,11 +182,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>资源类型</t>
+  </si>
+  <si>
+    <t>资源名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>归属部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debian</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux资源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.182</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows2008 域控服务器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.240</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑方式的value值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源账号名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号口令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认口令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameAndpass</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root.1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt,bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>部门名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>执行的操作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>被编辑的用户组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行操作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>被编辑的资源组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs资源组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs用户组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行的操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zlj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jyb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyr</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -194,123 +354,13 @@
   <si>
     <t>ROOT部门</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型</t>
-  </si>
-  <si>
-    <t>资源名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>归属部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debian</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>linux资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.23.182</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows2008 域控服务器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>windows</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.240</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.23.168</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lzy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑方式的value值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源账号名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号口令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认口令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nameAndpass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>root</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root.1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xt,bm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +420,26 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -479,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,9 +566,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,6 +590,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,12 +945,105 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="45.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="15">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -894,8 +1060,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -941,21 +1107,27 @@
         <v>1</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -963,11 +1135,19 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -975,30 +1155,199 @@
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="E11" s="6"/>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1059,205 +1408,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="28.375" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>8</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1276,10 +1430,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1296,184 +1450,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1484,25 +1466,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>41</v>
+      <c r="A1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="A2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="10">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>68</v>
+      <c r="C2" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
+      <c r="A3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25">
+      <c r="A5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
+      <c r="A6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25">
+      <c r="A7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1511,12 +1548,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1526,18 +1563,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
-      <c r="A1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>40</v>
+      <c r="A1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="A2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25">
+      <c r="A3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25">
+      <c r="A4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="A6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25">
+      <c r="A7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1547,12 +1624,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1566,107 +1643,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="B3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="C1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="11" t="s">
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="D2" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>65</v>
+      <c r="B1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="15">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -13,19 +13,22 @@
     <sheet name="add_role" sheetId="5" r:id="rId4"/>
     <sheet name="add_dep" sheetId="7" r:id="rId5"/>
     <sheet name="del_dep" sheetId="9" r:id="rId6"/>
-    <sheet name="add_authori_res" sheetId="8" r:id="rId7"/>
-    <sheet name="add_user_group" sheetId="10" r:id="rId8"/>
-    <sheet name="del_user_group" sheetId="11" r:id="rId9"/>
-    <sheet name="add_res_group" sheetId="12" r:id="rId10"/>
-    <sheet name="del_res_group" sheetId="13" r:id="rId11"/>
-    <sheet name="add_res_to_group" sheetId="14" r:id="rId12"/>
+    <sheet name="add_res" sheetId="8" r:id="rId7"/>
+    <sheet name="res_account" sheetId="17" r:id="rId8"/>
+    <sheet name="add_user_group" sheetId="10" r:id="rId9"/>
+    <sheet name="del_user_group" sheetId="11" r:id="rId10"/>
+    <sheet name="add_res_group" sheetId="12" r:id="rId11"/>
+    <sheet name="del_res_group" sheetId="13" r:id="rId12"/>
+    <sheet name="add_res_to_group" sheetId="14" r:id="rId13"/>
+    <sheet name="add_application" sheetId="15" r:id="rId14"/>
+    <sheet name="add_account_auth" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="142">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,210 +193,407 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>归属部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Debian</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>linux资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.23.182</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Windows2008 域控服务器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>172.16.10.240</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameAndpass</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root.1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt,bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行的操作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>被编辑的用户组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行操作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>被编辑的资源组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组名称</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs资源组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs用户组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行的操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zlj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jyb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源所属部门</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组部门</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择的资源组部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接用户名5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令确认7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_server2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root.123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco匿名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>debian7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ssh2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权名称2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ip6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源账号8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属部门3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员账号5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员口令6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameAndpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令确认7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提权口令8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提权口令确认9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>windows</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.240</t>
+    <t>windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑方式的value值1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>临时部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑方式的value值</t>
+    <t>资源账号名称2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>资源账号名称</t>
+    <t>账号口令3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>账号口令</t>
+    <t>确认口令4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>确认口令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nameAndpass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>root</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root.1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xt,bm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行的操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROOT部门</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>被编辑的用户组名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>被编辑的资源组名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源组名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs资源组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs用户组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行的操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>zlj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lzy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jyb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROOT部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源所属部门</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源组部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源组部门</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择的资源组部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
+    <t>添加用户和资源账号类型的授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,6 +841,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,6 +1197,49 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="15">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1009,22 +1258,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -1032,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1071,13 +1320,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -1085,10 +1334,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1097,12 +1346,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1114,25 +1363,166 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>3389</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1145,7 +1535,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1191,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1215,7 +1605,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -1394,7 +1784,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1550,10 +1940,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1587,79 +1977,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B5" s="10">
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1684,15 +2074,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10">
         <v>4</v>
@@ -1700,7 +2090,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B3" s="10">
         <v>4</v>
@@ -1708,7 +2098,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4" s="10">
         <v>4</v>
@@ -1716,7 +2106,7 @@
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -1724,7 +2114,7 @@
     </row>
     <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B6" s="10">
         <v>4</v>
@@ -1732,7 +2122,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B7" s="10">
         <v>4</v>
@@ -1746,23 +2136,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="3" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="26.75" customWidth="1"/>
+    <col min="12" max="12" width="22.375" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
@@ -1770,85 +2167,332 @@
         <v>40</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25">
+      <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25">
+      <c r="A3" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="B3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.25">
+      <c r="A4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25">
+      <c r="A5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25">
+      <c r="A6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="35.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75">
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="E1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>45</v>
+        <v>103</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="E4" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25">
+      <c r="A8" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="4">
+        <v>123456</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1856,12 +2500,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1875,22 +2519,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -1898,19 +2542,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1918,47 +2562,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="15">
-        <v>4</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="add_res_to_group" sheetId="14" r:id="rId13"/>
     <sheet name="add_application" sheetId="15" r:id="rId14"/>
     <sheet name="add_account_auth" sheetId="16" r:id="rId15"/>
+    <sheet name="add_authorization" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="152">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,6 +595,37 @@
   </si>
   <si>
     <t>添加用户和资源账号类型的授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debian</t>
+  </si>
+  <si>
+    <t>linux资源</t>
+  </si>
+  <si>
+    <t>172.16.10.182</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nameAndpass</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>添加流程测试授权</t>
+  </si>
+  <si>
+    <t>流程测试</t>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+  </si>
+  <si>
+    <t>授权名称1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,7 +1383,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1456,9 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1523,6 +1553,53 @@
         <v>0</v>
       </c>
       <c r="K2" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2136,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2335,6 +2412,26 @@
         <v>126</v>
       </c>
     </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2344,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2492,6 +2589,23 @@
       </c>
       <c r="E8" s="4">
         <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="154">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -366,26 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接用户名5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令确认7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>app_server2003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,14 +371,6 @@
   </si>
   <si>
     <t>root.123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -450,78 +418,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试点说明0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权名称2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源ip6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源组7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源账号8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存成功！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ip2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归属部门3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员账号5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员口令6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nameAndpass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,18 +447,6 @@
   </si>
   <si>
     <t>yuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令确认7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提权口令8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提权口令确认9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -578,54 +470,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编辑方式的value值1</t>
+    <t>yw123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加cisco资源授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加cisco匿名授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco匿名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加debian7授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加 huawei授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yw123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$anonymous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属部门</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>资源账号名称2</t>
+    <t>协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提权口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提权口令确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑方式的value值</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>账号口令3</t>
+    <t>资源账号名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>确认口令4</t>
+    <t>账号口令</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>添加用户和资源账号类型的授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debian</t>
-  </si>
-  <si>
-    <t>linux资源</t>
-  </si>
-  <si>
-    <t>172.16.10.182</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>nameAndpass</t>
-  </si>
-  <si>
-    <t>root</t>
+    <t>确认口令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+  </si>
+  <si>
+    <t>流程测试</t>
   </si>
   <si>
     <t>添加流程测试授权</t>
   </si>
   <si>
-    <t>流程测试</t>
-  </si>
-  <si>
-    <t>ROOT部门</t>
+    <t>部门3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>授权名称1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,9 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1187,7 +1198,7 @@
     <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1203,11 +1214,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -1232,7 +1240,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1244,13 +1252,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -1258,10 +1266,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1290,22 +1298,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -1313,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1352,13 +1360,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -1366,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1391,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1395,24 +1403,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1434,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1439,43 +1447,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="4">
+        <v>3389</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2">
-        <v>3389</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
+      <c r="F2" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1486,77 +1494,147 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="17" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="G2" s="17" t="s">
+        <v>111</v>
+      </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17">
         <v>0</v>
       </c>
-      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1564,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1575,27 +1653,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1611,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1623,7 +1701,7 @@
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
     <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="21.25" customWidth="1"/>
   </cols>
@@ -1631,7 +1709,7 @@
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1646,19 +1724,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1682,18 +1760,18 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -1710,11 +1788,11 @@
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -1731,11 +1809,11 @@
     <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1744,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1754,11 +1832,11 @@
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1775,11 +1853,11 @@
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1792,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1800,11 +1878,11 @@
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1817,18 +1895,18 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1844,11 +1922,11 @@
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1861,16 +1939,16 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1886,11 +1964,11 @@
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1906,11 +1984,11 @@
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1948,7 +2026,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1973,16 +2051,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>12345678</v>
       </c>
     </row>
@@ -1998,7 +2076,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2012,23 +2090,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2042,7 +2120,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2054,79 +2132,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="10">
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2151,15 +2229,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="10">
         <v>4</v>
@@ -2167,7 +2245,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="10">
         <v>4</v>
@@ -2175,7 +2253,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="10">
         <v>4</v>
@@ -2183,7 +2261,7 @@
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -2191,7 +2269,7 @@
     </row>
     <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="10">
         <v>4</v>
@@ -2199,7 +2277,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="10">
         <v>4</v>
@@ -2213,23 +2291,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="4" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="22.25" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="26.75" customWidth="1"/>
     <col min="12" max="12" width="22.375" customWidth="1"/>
     <col min="13" max="13" width="18.25" customWidth="1"/>
@@ -2238,78 +2317,78 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -2320,117 +2399,97 @@
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2441,14 +2500,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.625" customWidth="1"/>
@@ -2457,155 +2517,138 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D8" s="4">
         <v>123456</v>
       </c>
       <c r="E8" s="4">
         <v>123456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2633,22 +2676,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="E1" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -2656,19 +2699,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="157">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,16 +631,22 @@
     <t>添加流程测试授权</t>
   </si>
   <si>
-    <t>部门3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权名称1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Debian</t>
+  </si>
+  <si>
+    <t>linux资源</t>
+  </si>
+  <si>
+    <t>172.16.10.182</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nameAndpass</t>
+  </si>
+  <si>
+    <t>root</t>
   </si>
 </sst>
 </file>
@@ -1642,24 +1648,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>97</v>
@@ -1689,7 +1697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -2291,17 +2299,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
@@ -2491,6 +2499,26 @@
         <v>102</v>
       </c>
     </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2500,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2649,6 +2677,23 @@
       </c>
       <c r="E8" s="4">
         <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -23,13 +23,16 @@
     <sheet name="add_application" sheetId="15" r:id="rId14"/>
     <sheet name="add_account_auth" sheetId="16" r:id="rId15"/>
     <sheet name="add_authorization" sheetId="18" r:id="rId16"/>
+    <sheet name="add_client" sheetId="19" r:id="rId17"/>
+    <sheet name="del_client" sheetId="20" r:id="rId18"/>
+    <sheet name="add_database" sheetId="21" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="256">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +135,6 @@
   </si>
   <si>
     <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -470,23 +469,565 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>172.16.10.202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加cisco资源授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加cisco匿名授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco匿名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加debian7授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加 huawei授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>yw123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加cisco资源授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加cisco匿名授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cisco匿名</t>
+    <t>172.16.10.205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$anonymous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提权口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提权口令确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑方式的value值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源账号名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号口令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认口令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+  </si>
+  <si>
+    <t>流程测试</t>
+  </si>
+  <si>
+    <t>添加流程测试授权</t>
+  </si>
+  <si>
+    <t>Debian</t>
+  </si>
+  <si>
+    <t>linux资源</t>
+  </si>
+  <si>
+    <t>172.16.10.182</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nameAndpass</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>Windows Server 2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加server2003授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加域控授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yukong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hH@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属域控主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hgcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows(172.16.10.240)-&gt;Windows2008 域控服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPV6-2008R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加域内授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp.123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_server2003</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORACLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle10g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle10g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属部门4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>库名6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务名7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码策略8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号属性9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单名称10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令属性11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单提交方式12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录url13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择客户端14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用发布15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>依附操作系统IP16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员帐号17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员口令18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令确认19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加BS资源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/S应用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sername</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oginForm</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wd</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加oracle10g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle10g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORCL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ystem</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>testlink</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle10g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.221</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.2.116</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>orcl_10.221</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.2.116/testlink/login.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testlink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle10g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加bs授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.2.116</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -494,166 +1035,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加debian7授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gg123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加 huawei授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yw123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$anonymous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归属部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提权口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提权口令确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑方式的value值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源账号名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号口令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认口令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROOT部门</t>
-  </si>
-  <si>
-    <t>流程测试</t>
-  </si>
-  <si>
-    <t>添加流程测试授权</t>
-  </si>
-  <si>
-    <t>Debian</t>
-  </si>
-  <si>
-    <t>linux资源</t>
-  </si>
-  <si>
-    <t>172.16.10.182</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>nameAndpass</t>
-  </si>
-  <si>
-    <t>root</t>
+    <t>添加database授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prg=C:\Program Files\Navicat for MySQL\navicat.exe,fwt=Navicat for MySQL,fnc=1tab,fnc=1enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加mysql资源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存成功！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSQL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_server2003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2a1s2u!@#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.183</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prg=C:\Program Files\PLSQL Developer\plsqldev.exe,fwt=Oracle Logon,fnc=5tab,dat=account,fnc=1tab,dat=pwd,fnc=1tab,dat=dataBase,fnc=1tab,fnc=enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2a1s2u!@#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2a1s2u!@#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,12 +1170,14 @@
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -733,6 +1185,23 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -763,7 +1232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -836,13 +1305,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,9 +1379,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1258,13 +1771,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -1272,10 +1785,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1304,22 +1817,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -1327,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1366,13 +1879,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -1380,10 +1893,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1409,24 +1922,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1953,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1454,42 +1967,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="C2" s="4">
         <v>3389</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1500,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1523,45 +2036,45 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -1571,23 +2084,23 @@
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -1595,19 +2108,19 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1617,23 +2130,131 @@
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1648,7 +2269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1664,24 +2285,24 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1693,12 +2314,356 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="18.75">
+      <c r="A1" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="14.25">
+      <c r="A2" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.25">
+      <c r="A3" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14.25">
+      <c r="A4" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="U4" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="S4" r:id="rId2"/>
+    <hyperlink ref="T4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1714,7 +2679,7 @@
     <col min="10" max="10" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>21</v>
@@ -1732,22 +2697,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>81</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -1768,11 +2736,12 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>22</v>
@@ -1792,8 +2761,9 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>23</v>
@@ -1813,8 +2783,9 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>24</v>
@@ -1830,14 +2801,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>25</v>
@@ -1857,15 +2829,18 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1878,19 +2853,24 @@
         <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="L7" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1903,18 +2883,21 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="L8" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -1927,14 +2910,15 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1947,16 +2931,17 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1969,14 +2954,15 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1989,14 +2975,15 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -2009,23 +2996,47 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="4">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
+      <c r="L14" s="19" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L7" r:id="rId1"/>
+    <hyperlink ref="L8" r:id="rId2"/>
+    <hyperlink ref="L14" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2103,10 +3114,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2140,79 +3151,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="10">
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2237,15 +3248,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="10">
         <v>4</v>
@@ -2253,7 +3264,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="10">
         <v>4</v>
@@ -2261,7 +3272,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="10">
         <v>4</v>
@@ -2269,7 +3280,7 @@
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -2277,7 +3288,7 @@
     </row>
     <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10">
         <v>4</v>
@@ -2285,7 +3296,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="10">
         <v>4</v>
@@ -2299,104 +3310,124 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="22.25" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="18.75" customWidth="1"/>
     <col min="10" max="10" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="26.75" customWidth="1"/>
-    <col min="12" max="12" width="22.375" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="6.75" customWidth="1"/>
+    <col min="12" max="12" width="9.125" customWidth="1"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="12.875" customWidth="1"/>
+    <col min="15" max="15" width="26.75" customWidth="1"/>
+    <col min="16" max="16" width="22.375" customWidth="1"/>
+    <col min="17" max="17" width="18.25" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.25">
+      <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25">
-      <c r="A2" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25">
-      <c r="A3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.25">
+      <c r="A3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -2404,113 +3435,131 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.25">
+      <c r="K3" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25">
       <c r="A4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.25">
+      <c r="A5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25">
-      <c r="A5" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25">
+        <v>88</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.25">
       <c r="A6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>103</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>101</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2518,6 +3567,66 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.25">
+      <c r="A8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2528,10 +3637,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2545,132 +3654,132 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="4">
         <v>123456</v>
@@ -2681,23 +3790,114 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="A11" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>156</v>
+      <c r="B11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="D14" r:id="rId3"/>
+    <hyperlink ref="E14" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2721,22 +3921,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -2744,19 +3944,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="259">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1097,6 +1097,16 @@
   <si>
     <t>m2a1s2u!@#</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加命令规则授权</t>
+  </si>
+  <si>
+    <t>命令审批</t>
   </si>
 </sst>
 </file>
@@ -2267,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2295,16 +2305,30 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2318,7 +2342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2433,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2660,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3027,6 +3051,27 @@
       <c r="L14" s="19" t="s">
         <v>163</v>
       </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3313,7 +3358,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3640,7 +3685,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -983,18 +983,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.221</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.2.116</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>orcl_10.221</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>http://192.168.2.116/testlink/login.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1107,6 +1099,14 @@
   </si>
   <si>
     <t>命令审批</t>
+  </si>
+  <si>
+    <t>172.16.10.222</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>orcl_10.222</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2228,11 +2228,11 @@
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="18" t="s">
@@ -2248,11 +2248,11 @@
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="18" t="s">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>146</v>
@@ -2379,7 +2379,7 @@
         <v>194</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2388,10 +2388,10 @@
         <v>187</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2444,7 @@
         <v>187</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2458,7 +2458,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="10" t="s">
@@ -2595,13 +2595,13 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>223</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -2628,23 +2628,23 @@
     </row>
     <row r="4" spans="1:21" ht="14.25">
       <c r="A4" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -2654,20 +2654,20 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>249</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U4" s="27"/>
     </row>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -3054,11 +3054,11 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -3886,53 +3886,53 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>253</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="259">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1717,7 +1717,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2457,7 +2457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -3355,10 +3355,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3672,6 +3672,30 @@
       <c r="N9" s="4" t="s">
         <v>174</v>
       </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25">
+      <c r="A10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="261">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,10 +386,6 @@
   </si>
   <si>
     <t>cisco</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cisco匿名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1107,6 +1103,18 @@
   <si>
     <t>orcl_10.222</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1977,22 +1985,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -2023,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2046,113 +2054,111 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>110</v>
+      <c r="A2" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17">
+      <c r="C2" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="C3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="J4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2161,42 +2167,42 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>158</v>
+      <c r="A6" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="18" t="s">
-        <v>156</v>
+      <c r="C6" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="18" t="s">
-        <v>35</v>
+      <c r="E6" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="18" t="s">
-        <v>182</v>
+      <c r="G6" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="18">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="18" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="18" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2206,40 +2212,42 @@
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="18" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4">
+      <c r="J8" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="18" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="18" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>171</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
@@ -2248,23 +2256,43 @@
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="18" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="18" t="s">
-        <v>236</v>
-      </c>
+      <c r="G10" s="18"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2295,24 +2323,24 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2320,13 +2348,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -2356,42 +2384,42 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>189</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2418,33 +2446,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>189</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2476,100 +2504,100 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.25">
       <c r="A2" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>217</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="24" t="s">
         <v>219</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>220</v>
       </c>
       <c r="M2" s="4">
         <v>1</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="10" t="s">
@@ -2582,26 +2610,26 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>222</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -2610,41 +2638,41 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
       <c r="A4" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -2654,20 +2682,20 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U4" s="27"/>
     </row>
@@ -2736,7 +2764,7 @@
         <v>81</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -2858,13 +2886,13 @@
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -2877,12 +2905,12 @@
         <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -2912,12 +2940,12 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -3025,13 +3053,13 @@
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="4">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -3044,21 +3072,21 @@
         <v>8</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -3357,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3391,40 +3419,40 @@
         <v>38</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="K1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25">
@@ -3432,10 +3460,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>77</v>
@@ -3445,7 +3473,7 @@
         <v>86</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>86</v>
@@ -3466,7 +3494,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>41</v>
@@ -3481,7 +3509,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -3495,13 +3523,13 @@
         <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>88</v>
@@ -3528,10 +3556,10 @@
         <v>87</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>85</v>
@@ -3559,34 +3587,34 @@
     </row>
     <row r="6" spans="1:14" ht="14.25">
       <c r="A6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -3595,16 +3623,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3619,19 +3647,19 @@
     </row>
     <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -3645,16 +3673,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3667,10 +3695,10 @@
         <v>2</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25">
@@ -3678,7 +3706,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>41</v>
@@ -3709,7 +3737,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3726,21 +3754,21 @@
         <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>44</v>
@@ -3757,24 +3785,24 @@
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>44</v>
@@ -3808,10 +3836,10 @@
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>85</v>
@@ -3825,30 +3853,30 @@
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4">
         <v>123456</v>
@@ -3859,27 +3887,27 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>46</v>
@@ -3893,70 +3921,70 @@
     </row>
     <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="E11" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>252</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="257">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +155,6 @@
   </si>
   <si>
     <t>ad域用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -656,18 +652,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加域控授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yukong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>域口令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,14 +713,6 @@
   </si>
   <si>
     <t>ad2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1114,6 +1090,14 @@
   </si>
   <si>
     <t>cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加windows授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1789,13 +1773,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -1803,10 +1787,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1835,22 +1819,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -1858,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1897,13 +1881,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -1911,10 +1895,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1940,24 +1924,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1985,42 +1969,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="C2" s="4">
         <v>3389</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2034,7 +2018,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2054,37 +2038,37 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
@@ -2100,19 +2084,19 @@
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -2122,23 +2106,23 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -2146,19 +2130,19 @@
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2168,19 +2152,19 @@
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -2190,19 +2174,19 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="18" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -2212,20 +2196,18 @@
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="18" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="18" t="s">
-        <v>160</v>
-      </c>
+      <c r="G8" s="18"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="18">
@@ -2234,19 +2216,19 @@
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -2256,11 +2238,11 @@
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="18" t="s">
@@ -2276,19 +2258,19 @@
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="18" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -2323,24 +2305,24 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2348,13 +2330,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -2384,42 +2366,42 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="D2" s="17" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2446,33 +2428,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2504,104 +2486,104 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.25">
       <c r="A2" s="23" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="24" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="24" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M2" s="4">
         <v>1</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -2610,26 +2592,26 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="23" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -2638,41 +2620,41 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
       <c r="A4" s="23" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -2682,20 +2664,20 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="U4" s="27"/>
     </row>
@@ -2715,7 +2697,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2761,10 +2743,10 @@
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -2788,7 +2770,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -2886,13 +2868,13 @@
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -2905,12 +2887,12 @@
         <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -2935,21 +2917,21 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -2966,11 +2948,11 @@
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2983,17 +2965,17 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -3010,11 +2992,11 @@
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -3031,11 +3013,11 @@
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -3053,13 +3035,13 @@
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C14" s="4">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -3072,21 +3054,21 @@
         <v>8</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -3187,10 +3169,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3224,79 +3206,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="10">
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3321,15 +3303,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="10">
         <v>4</v>
@@ -3337,7 +3319,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10">
         <v>4</v>
@@ -3345,7 +3327,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10">
         <v>4</v>
@@ -3353,7 +3335,7 @@
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -3361,7 +3343,7 @@
     </row>
     <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="10">
         <v>4</v>
@@ -3369,7 +3351,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="10">
         <v>4</v>
@@ -3413,76 +3395,76 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="C1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="K1" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -3491,16 +3473,16 @@
     </row>
     <row r="3" spans="1:14" ht="14.25">
       <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3509,7 +3491,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -3517,34 +3499,34 @@
     </row>
     <row r="4" spans="1:14" ht="14.25">
       <c r="A4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3553,32 +3535,32 @@
     </row>
     <row r="5" spans="1:14" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -3587,34 +3569,34 @@
     </row>
     <row r="6" spans="1:14" ht="14.25">
       <c r="A6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -3623,16 +3605,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3647,19 +3629,19 @@
     </row>
     <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -3673,16 +3655,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3695,24 +3677,24 @@
         <v>2</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25">
       <c r="A10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -3737,7 +3719,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3751,132 +3733,132 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4">
         <v>123456</v>
@@ -3887,104 +3869,104 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="18" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4018,22 +4000,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -4041,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="240">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,58 +469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加cisco匿名授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cisco匿名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加debian7授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gg123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加 huawei授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yw123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$anonymous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,10 +649,6 @@
   </si>
   <si>
     <t>IPV6-2008R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加域内授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -980,18 +924,6 @@
   </si>
   <si>
     <t>system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加bs授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.2.116</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1969,22 +1901,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -2015,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2038,25 +1970,25 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>94</v>
@@ -2064,11 +1996,11 @@
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="18" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
@@ -2105,176 +2037,64 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>109</v>
+      <c r="A4" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>110</v>
+      <c r="C4" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>111</v>
+      <c r="E4" s="18" t="s">
+        <v>238</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>112</v>
+      <c r="G4" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="4"/>
+      <c r="J4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>113</v>
+      <c r="A5" s="18" t="s">
+        <v>239</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>114</v>
+      <c r="C5" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>115</v>
+      <c r="E5" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="G5" s="18"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4">
+      <c r="J5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>117</v>
+      <c r="A6" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>121</v>
+      <c r="C6" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>118</v>
+      <c r="E6" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="G6" s="18"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2305,7 +2125,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>80</v>
@@ -2316,13 +2136,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2330,13 +2150,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -2366,42 +2186,42 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2428,33 +2248,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2486,100 +2306,100 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.25">
       <c r="A2" s="23" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="24" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="24" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="M2" s="4">
         <v>1</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="10" t="s">
@@ -2592,26 +2412,26 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="23" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -2620,41 +2440,41 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
       <c r="A4" s="23" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -2664,20 +2484,20 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="U4" s="27"/>
     </row>
@@ -2746,7 +2566,7 @@
         <v>80</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -2868,13 +2688,13 @@
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -2887,12 +2707,12 @@
         <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="19" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -2917,17 +2737,17 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="19" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="4" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -3035,13 +2855,13 @@
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C14" s="4">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -3054,21 +2874,21 @@
         <v>8</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="19" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="4" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -3401,40 +3221,40 @@
         <v>37</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="K1" s="9" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25">
@@ -3491,7 +3311,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -3538,7 +3358,7 @@
         <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>89</v>
@@ -3605,16 +3425,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3629,19 +3449,19 @@
     </row>
     <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -3655,16 +3475,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3677,10 +3497,10 @@
         <v>2</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25">
@@ -3736,16 +3556,16 @@
         <v>37</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
@@ -3818,7 +3638,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>90</v>
@@ -3869,27 +3689,27 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>45</v>
@@ -3903,70 +3723,70 @@
     </row>
     <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="10" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="18" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="245">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -995,42 +995,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>添加命令规则授权</t>
+  </si>
+  <si>
+    <t>命令审批</t>
+  </si>
+  <si>
+    <t>172.16.10.222</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>orcl_10.222</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加windows授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加命令规则授权</t>
-  </si>
-  <si>
-    <t>命令审批</t>
-  </si>
-  <si>
-    <t>172.16.10.222</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>orcl_10.222</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>匿名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加windows授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -1949,7 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1996,11 +2010,11 @@
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
@@ -2046,7 +2060,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="18" t="s">
@@ -2060,7 +2074,7 @@
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="18" t="s">
@@ -2150,10 +2164,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>131</v>
@@ -2425,13 +2439,13 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>202</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -2514,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2884,11 +2898,11 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -2902,6 +2916,111 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3358,7 +3477,7 @@
         <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>89</v>
@@ -3638,7 +3757,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>90</v>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="244">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,14 +75,6 @@
   </si>
   <si>
     <t>通讯秘钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hgcs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,10 +653,6 @@
   </si>
   <si>
     <t>ad3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1045,6 +1033,14 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>172.16.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1667,16 +1663,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1689,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -1719,13 +1715,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -1733,10 +1729,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1765,22 +1761,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="F1" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -1788,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1827,13 +1823,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
@@ -1841,10 +1837,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1870,24 +1866,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1915,42 +1911,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4">
         <v>3389</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1978,43 +1974,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="18" t="s">
@@ -2030,19 +2026,19 @@
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -2052,19 +2048,19 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2074,15 +2070,15 @@
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="18"/>
@@ -2094,11 +2090,11 @@
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="18" t="s">
@@ -2136,27 +2132,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2164,13 +2160,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -2200,42 +2196,42 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2262,33 +2258,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2320,104 +2316,104 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.25">
       <c r="A2" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M2" s="4">
         <v>1</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -2426,26 +2422,26 @@
     </row>
     <row r="3" spans="1:21" ht="14.25">
       <c r="A3" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -2454,41 +2450,41 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
       <c r="A4" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -2498,20 +2494,20 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="S4" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="S4" s="25" t="s">
-        <v>224</v>
-      </c>
       <c r="T4" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="U4" s="27"/>
     </row>
@@ -2530,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2550,7 +2546,7 @@
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2565,22 +2561,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -2604,7 +2600,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -2612,11 +2608,11 @@
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -2634,11 +2630,11 @@
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2656,11 +2652,11 @@
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -2669,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2680,11 +2676,11 @@
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -2702,13 +2698,13 @@
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -2721,24 +2717,24 @@
         <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -2751,21 +2747,21 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -2782,11 +2778,11 @@
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2799,17 +2795,17 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -2826,11 +2822,11 @@
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -2847,11 +2843,11 @@
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -2869,13 +2865,13 @@
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="4">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -2888,21 +2884,21 @@
         <v>8</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -2919,11 +2915,11 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2940,11 +2936,11 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -2961,11 +2957,11 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -2982,11 +2978,11 @@
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -3003,11 +2999,11 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -3038,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3065,13 +3061,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>12345678</v>
@@ -3103,23 +3099,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3145,79 +3141,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="10">
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3242,15 +3238,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="10">
         <v>4</v>
@@ -3258,7 +3254,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="10">
         <v>4</v>
@@ -3266,7 +3262,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="10">
         <v>4</v>
@@ -3274,7 +3270,7 @@
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -3282,7 +3278,7 @@
     </row>
     <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="10">
         <v>4</v>
@@ -3290,7 +3286,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="10">
         <v>4</v>
@@ -3334,76 +3330,76 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="K1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -3412,16 +3408,16 @@
     </row>
     <row r="3" spans="1:14" ht="14.25">
       <c r="A3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3430,7 +3426,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -3438,34 +3434,34 @@
     </row>
     <row r="4" spans="1:14" ht="14.25">
       <c r="A4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3474,32 +3470,32 @@
     </row>
     <row r="5" spans="1:14" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -3508,34 +3504,34 @@
     </row>
     <row r="6" spans="1:14" ht="14.25">
       <c r="A6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -3544,16 +3540,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3568,19 +3564,19 @@
     </row>
     <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -3594,16 +3590,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3616,24 +3612,24 @@
         <v>2</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25">
       <c r="A10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -3672,132 +3668,132 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="4">
         <v>123456</v>
@@ -3808,104 +3804,104 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3939,22 +3935,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="E1" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -3962,19 +3958,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="248">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1042,12 +1042,24 @@
     <t>server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>H3C</t>
+  </si>
+  <si>
+    <t>h3c</t>
+  </si>
+  <si>
+    <t>172.16.10.208</t>
+  </si>
+  <si>
+    <t>Ssh2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,8 +1161,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1175,8 +1199,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1258,6 +1288,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1268,7 +1313,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,6 +1396,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3034,7 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3300,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3642,6 +3693,42 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
+    <row r="11" spans="1:14" ht="14.25">
+      <c r="A11" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="28">
+        <v>123</v>
+      </c>
+      <c r="H11" s="28">
+        <v>123</v>
+      </c>
+      <c r="I11" s="28">
+        <v>123</v>
+      </c>
+      <c r="J11" s="28">
+        <v>123</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3651,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3902,6 +3989,23 @@
       </c>
       <c r="E14" s="19" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="29">
+        <v>123</v>
+      </c>
+      <c r="E15" s="29">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="247">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>root.1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xt,bm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,19 +218,19 @@
   </si>
   <si>
     <t>部门名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>执行的操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>用户组名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ROOT部门</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>被编辑的用户组名称</t>
@@ -246,11 +242,11 @@
   </si>
   <si>
     <t>执行操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>被编辑的资源组名称</t>
@@ -258,15 +254,15 @@
   </si>
   <si>
     <t>资源组名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>cs资源组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>cs用户组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>部门名称</t>
@@ -310,7 +306,7 @@
   </si>
   <si>
     <t>资源所属部门</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>资源组部门</t>
@@ -318,7 +314,7 @@
   </si>
   <si>
     <t>资源组部门</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>资源部门</t>
@@ -389,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>debian7</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -616,14 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hgcs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>windows(172.16.10.240)-&gt;Windows2008 域控服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Common Windows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,15 +616,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.191</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPV6-2008R2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1043,10 +1019,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>172.16.10.24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows(172.16.10.24)-&gt;Windows2008 域控服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyr--ceshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin@12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h3c</t>
+  </si>
+  <si>
     <t>H3C</t>
-  </si>
-  <si>
-    <t>h3c</t>
   </si>
   <si>
     <t>172.16.10.208</t>
@@ -1059,7 +1055,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,14 +1105,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1206,7 +1194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1288,27 +1276,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1350,16 +1323,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1371,10 +1341,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1386,23 +1356,26 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1765,25 +1738,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="14">
+        <v>4</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="15">
-        <v>4</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1811,43 +1784,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="F2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1873,25 +1846,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="14">
+        <v>4</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="15">
-        <v>4</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1917,24 +1890,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>69</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>50</v>
+      <c r="C2" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1962,30 +1935,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C2" s="4">
         <v>3389</v>
@@ -1994,10 +1967,10 @@
         <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2031,44 +2004,44 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>232</v>
+      <c r="A2" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="18" t="s">
-        <v>233</v>
+      <c r="C2" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="18"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4">
@@ -2077,82 +2050,82 @@
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17">
+      <c r="C3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>141</v>
+      <c r="A4" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="18" t="s">
-        <v>139</v>
+      <c r="C4" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="18" t="s">
-        <v>234</v>
+      <c r="E4" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="18" t="s">
-        <v>158</v>
+      <c r="G4" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>235</v>
+      <c r="A5" s="17" t="s">
+        <v>229</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="18" t="s">
-        <v>103</v>
+      <c r="C5" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="18" t="s">
-        <v>155</v>
+      <c r="E5" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>211</v>
+      <c r="A6" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="18" t="s">
-        <v>212</v>
+      <c r="C6" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
@@ -2186,24 +2159,24 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2211,13 +2184,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -2247,42 +2220,42 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>223</v>
+      <c r="D2" s="16" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2309,33 +2282,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2366,105 +2339,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="O1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="14.25">
+      <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="R1" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="14.25">
-      <c r="A2" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="24" t="s">
-        <v>203</v>
+      <c r="F2" s="23" t="s">
+        <v>197</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>196</v>
+      <c r="J2" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>190</v>
       </c>
       <c r="M2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="19" t="s">
-        <v>204</v>
+      <c r="N2" s="18" t="s">
+        <v>198</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -2472,27 +2445,27 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="14.25">
-      <c r="A3" s="23" t="s">
-        <v>197</v>
+      <c r="A3" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -2501,41 +2474,41 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
-      <c r="A4" s="23" t="s">
-        <v>215</v>
+      <c r="A4" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -2545,22 +2518,22 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="T4" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="U4" s="27"/>
+        <v>212</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="U4" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2624,10 +2597,10 @@
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -2651,7 +2624,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -2749,13 +2722,13 @@
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -2772,8 +2745,8 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="19" t="s">
-        <v>143</v>
+      <c r="L7" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -2802,13 +2775,13 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="19" t="s">
-        <v>143</v>
+      <c r="L8" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -2846,7 +2819,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L10" s="4"/>
     </row>
@@ -2916,13 +2889,13 @@
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -2939,17 +2912,17 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="19" t="s">
-        <v>143</v>
+      <c r="L14" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -2962,15 +2935,15 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="19"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2987,11 +2960,11 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -3008,11 +2981,11 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -3029,11 +3002,11 @@
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -3050,11 +3023,11 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -3112,10 +3085,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
@@ -3155,10 +3128,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3192,79 +3165,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="10">
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3289,15 +3262,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="10">
         <v>4</v>
@@ -3305,7 +3278,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="10">
         <v>4</v>
@@ -3313,7 +3286,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="10">
         <v>4</v>
@@ -3321,7 +3294,7 @@
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -3329,7 +3302,7 @@
     </row>
     <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="10">
         <v>4</v>
@@ -3337,7 +3310,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="10">
         <v>4</v>
@@ -3353,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3371,7 +3344,7 @@
     <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="6.75" customWidth="1"/>
     <col min="12" max="12" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="36.875" customWidth="1"/>
     <col min="14" max="14" width="12.875" customWidth="1"/>
     <col min="15" max="15" width="26.75" customWidth="1"/>
     <col min="16" max="16" width="22.375" customWidth="1"/>
@@ -3387,40 +3360,40 @@
         <v>35</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="K1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25">
@@ -3428,29 +3401,29 @@
         <v>36</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -3462,13 +3435,13 @@
         <v>37</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>38</v>
+        <v>100</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3477,7 +3450,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -3485,34 +3458,34 @@
     </row>
     <row r="4" spans="1:14" ht="14.25">
       <c r="A4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3521,32 +3494,32 @@
     </row>
     <row r="5" spans="1:14" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -3555,34 +3528,34 @@
     </row>
     <row r="6" spans="1:14" ht="14.25">
       <c r="A6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -3591,16 +3564,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3615,19 +3588,19 @@
     </row>
     <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -3641,16 +3614,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3663,10 +3636,10 @@
         <v>2</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>154</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25">
@@ -3674,9 +3647,9 @@
         <v>37</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -3694,40 +3667,40 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="14.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="D11" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="28">
+      <c r="F11" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="29">
         <v>123</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="29">
         <v>123</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="29">
         <v>123</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="29">
         <v>123</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3741,7 +3714,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3758,21 +3731,21 @@
         <v>35</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>41</v>
@@ -3789,98 +3762,98 @@
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>44</v>
+      <c r="D4" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4">
         <v>123456</v>
@@ -3891,120 +3864,120 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>81</v>
+      <c r="D10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>161</v>
+        <v>134</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="18" t="s">
-        <v>224</v>
+      <c r="A14" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>226</v>
+        <v>218</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
-      <c r="A15" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="A15" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="28">
         <v>123</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>123</v>
       </c>
     </row>
@@ -4015,6 +3988,8 @@
     <hyperlink ref="E11" r:id="rId2"/>
     <hyperlink ref="D14" r:id="rId3"/>
     <hyperlink ref="E14" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4038,43 +4013,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="D2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="806" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="248">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1049,6 +1049,10 @@
   </si>
   <si>
     <t>Ssh2</t>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1769,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1820,7 +1824,7 @@
         <v>73</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3713,7 +3717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="806" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="806" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="del_client" sheetId="20" r:id="rId18"/>
     <sheet name="add_database" sheetId="21" r:id="rId19"/>
     <sheet name="sso" sheetId="22" r:id="rId20"/>
+    <sheet name="add_user" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="266">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1121,6 +1122,10 @@
   </si>
   <si>
     <t>ifconfig,ls,ps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyya</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2218,7 +2223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -2639,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3271,6 +3276,561 @@
       <c r="G2" s="16" t="s">
         <v>264</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="806" firstSheet="7" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="806" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="add_database" sheetId="21" r:id="rId19"/>
     <sheet name="sso" sheetId="22" r:id="rId20"/>
     <sheet name="add_user" sheetId="23" r:id="rId21"/>
+    <sheet name="add_strategy" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="384">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,10 +349,6 @@
   </si>
   <si>
     <t>app_server2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -885,18 +882,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>oracle10g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>system</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加database授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -961,9 +950,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加命令规则授权</t>
-  </si>
-  <si>
     <t>命令审批</t>
   </si>
   <si>
@@ -991,10 +977,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加windows授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -1013,23 +995,7 @@
     <t>h</t>
   </si>
   <si>
-    <t>172.16.10.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.24</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>windows(172.16.10.24)-&gt;Windows2008 域控服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1126,6 +1092,513 @@
   </si>
   <si>
     <t>cyya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">test_F07_S22_add_strategy_001
+</t>
+  </si>
+  <si>
+    <t>cyya</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加密码策略cyya</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>符号最小长度</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字最小长度</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>大写字母最小长度</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>小写字母最小长度</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大口令长度</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小口令长度</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加密码策略cyyb</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyb</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">test_F07_S22_add_strategy_001
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyym</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加资源时间规则授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyretime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyydebain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyydb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyysr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加命令规则授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双人授权测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加双人授权测试授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyysr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加双人授权测试授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzfa</t>
+  </si>
+  <si>
+    <t>gyrlogin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrlogin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrlogin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-09-08 17:21:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrlogin4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrloginad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrloginad1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hH@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrdebian7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrdebian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameAndpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试密码策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.11.11.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrwindows</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrwindows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyruser123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyryw123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyr@fort.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrgg123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrsp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrsp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrapp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrdatabase</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyropt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyr@fort.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server 2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyroptresource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.23.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为报表资源组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为报表用户组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrconf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置报表用户组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrconflog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hH@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows(172.16.10.20)-&gt;Windows2008 域控服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加windows授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrad2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.20.234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyraudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维审计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.16.16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.20.212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root.123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加运维审计授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yingyong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.16.235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyraudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.20.212</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,6 +1714,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1274,7 +1761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1356,6 +1843,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1366,7 +1868,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1389,9 +1891,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1455,6 +1954,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1804,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1818,25 +2344,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
+      <c r="A3" s="13">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="13">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -1847,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1864,43 +2412,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>248</v>
+      <c r="D2" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>247</v>
+      <c r="F2" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="13">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1912,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1926,25 +2494,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
+      <c r="A3" s="13">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -1969,24 +2548,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1998,10 +2577,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2015,30 +2594,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="C2" s="4">
         <v>3389</v>
@@ -2047,10 +2626,30 @@
         <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3389</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2061,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2084,44 +2683,44 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>226</v>
+      <c r="A2" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="17" t="s">
-        <v>227</v>
+      <c r="C2" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="17"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4">
@@ -2130,85 +2729,167 @@
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16">
+      <c r="C3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>139</v>
+      <c r="A4" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="17" t="s">
-        <v>137</v>
+      <c r="C4" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="17" t="s">
-        <v>228</v>
+      <c r="E4" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="17" t="s">
-        <v>152</v>
+      <c r="G4" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>229</v>
+      <c r="A5" s="16" t="s">
+        <v>364</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="17" t="s">
-        <v>101</v>
+      <c r="C5" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="17" t="s">
-        <v>149</v>
+      <c r="E5" s="16" t="s">
+        <v>365</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>205</v>
+      <c r="A6" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="17" t="s">
-        <v>206</v>
+      <c r="C6" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32">
         <v>0</v>
       </c>
     </row>
@@ -2221,10 +2902,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2239,24 +2920,24 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2264,13 +2945,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -2278,15 +2959,29 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2314,42 +3009,42 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>217</v>
+        <v>163</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2376,33 +3071,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +3111,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2433,104 +3128,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="T1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="14.25">
+      <c r="A2" s="21" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="14.25">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>195</v>
+      <c r="D2" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="23" t="s">
-        <v>197</v>
+      <c r="F2" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>190</v>
-      </c>
       <c r="M2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>198</v>
+      <c r="N2" s="17" t="s">
+        <v>197</v>
       </c>
       <c r="O2" s="4"/>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="Q2" s="4"/>
@@ -2539,95 +3234,95 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="14.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>194</v>
+      <c r="S3" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="S4" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10" t="s">
+      <c r="T4" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="U4" s="26"/>
+      <c r="U4" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2645,7 +3340,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2695,10 +3390,10 @@
         <v>77</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -2800,7 +3495,7 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="8"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
@@ -2823,15 +3518,15 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -2848,13 +3543,13 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="18" t="s">
-        <v>141</v>
+      <c r="L7" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="8"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
@@ -2879,14 +3574,15 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="18" t="s">
-        <v>141</v>
+      <c r="L8" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -2907,6 +3603,7 @@
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
@@ -2925,14 +3622,15 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="18" t="s">
-        <v>250</v>
+      <c r="M10" s="17" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -2955,6 +3653,7 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
@@ -2977,6 +3676,7 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
@@ -2999,15 +3699,15 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="8"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="4">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -3024,18 +3724,19 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="18" t="s">
-        <v>141</v>
+      <c r="L14" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13">
+      <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -3048,16 +3749,17 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="18"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13">
+      <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -3073,13 +3775,14 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="1:13">
+      <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -3095,13 +3798,14 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="1:13">
+      <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -3117,13 +3821,14 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="1:13">
+      <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -3139,13 +3844,14 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="1:13">
+      <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -3161,12 +3867,21 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="17"/>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -3175,8 +3890,9 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="17"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3189,8 +3905,9 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="17"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3235,46 +3952,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>264</v>
+        <v>251</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3285,13 +4002,19 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="6"/>
@@ -3323,13 +4046,13 @@
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3362,11 +4085,11 @@
     <row r="3" spans="1:13">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -3384,11 +4107,19 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -3399,11 +4130,19 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -3414,12 +4153,20 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3427,13 +4174,21 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -3444,41 +4199,65 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -3489,27 +4268,43 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3519,11 +4314,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -3534,11 +4337,19 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -3549,41 +4360,65 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -3594,11 +4429,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -3609,11 +4452,19 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -3624,11 +4475,19 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -3639,11 +4498,19 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -3654,11 +4521,19 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>294</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -3669,11 +4544,19 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -3684,11 +4567,19 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -3699,11 +4590,19 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -3714,11 +4613,19 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3728,113 +4635,595 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="E27" s="30">
+        <v>1</v>
+      </c>
+      <c r="F27" s="30">
+        <v>1</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="E28" s="32">
+        <v>1</v>
+      </c>
+      <c r="F28" s="32">
+        <v>1</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" s="32">
+        <v>1</v>
+      </c>
+      <c r="F29" s="32">
+        <v>1</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="E30" s="32">
+        <v>1</v>
+      </c>
+      <c r="F30" s="32">
+        <v>1</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="E31" s="32">
+        <v>1</v>
+      </c>
+      <c r="F31" s="32">
+        <v>1</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C32" s="31">
+        <v>8</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E32" s="32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31">
+        <v>8</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="M32" s="31"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" s="31">
+        <v>8</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="E33" s="32">
+        <v>1</v>
+      </c>
+      <c r="F33" s="32">
+        <v>1</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31">
+        <v>10</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="M33" s="31"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="E34" s="32">
+        <v>1</v>
+      </c>
+      <c r="F34" s="32">
+        <v>1</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="E35" s="32">
+        <v>1</v>
+      </c>
+      <c r="F35" s="32">
+        <v>1</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="L35" s="31"/>
+      <c r="M35" s="34" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="E36" s="32">
+        <v>1</v>
+      </c>
+      <c r="F36" s="32">
+        <v>1</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="E37" s="32">
+        <v>1</v>
+      </c>
+      <c r="F37" s="32">
+        <v>1</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="E38" s="32">
+        <v>1</v>
+      </c>
+      <c r="F38" s="32">
+        <v>1</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="E39" s="31">
+        <v>1</v>
+      </c>
+      <c r="F39" s="31">
+        <v>1</v>
+      </c>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="E40" s="31">
+        <v>1</v>
+      </c>
+      <c r="F40" s="31">
+        <v>1</v>
+      </c>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="L40" s="31"/>
+      <c r="M40" s="34" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="E41" s="31">
+        <v>1</v>
+      </c>
+      <c r="F41" s="31">
+        <v>1</v>
+      </c>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="L41" s="31"/>
+      <c r="M41" s="34" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="E42" s="31">
+        <v>1</v>
+      </c>
+      <c r="F42" s="31">
+        <v>1</v>
+      </c>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C43" s="31">
+        <v>8</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="E43" s="31">
+        <v>1</v>
+      </c>
+      <c r="F43" s="31">
+        <v>1</v>
+      </c>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31">
+        <v>8</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="M43" s="31"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="E44" s="31">
+        <v>1</v>
+      </c>
+      <c r="F44" s="31">
+        <v>1</v>
+      </c>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L32" r:id="rId1"/>
+    <hyperlink ref="L33" r:id="rId2"/>
+    <hyperlink ref="M35" r:id="rId3"/>
+    <hyperlink ref="M40" r:id="rId4"/>
+    <hyperlink ref="M41" r:id="rId5"/>
+    <hyperlink ref="L43" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="31.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75">
+      <c r="A1" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27">
+      <c r="A2" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27">
+      <c r="A3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>276</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3843,12 +5232,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
   </cols>
@@ -3869,10 +5259,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>236</v>
+        <v>367</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>237</v>
+        <v>368</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
@@ -3948,79 +5338,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>0</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>0</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4045,58 +5435,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
     </row>
@@ -4108,10 +5498,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4137,139 +5527,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="14.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.25">
+      <c r="A3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25">
+      <c r="A4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.25">
-      <c r="A3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.25">
-      <c r="A4" s="10" t="s">
+      <c r="F4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4277,33 +5667,33 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="14.25">
-      <c r="A5" s="10" t="s">
-        <v>83</v>
+      <c r="A5" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -4311,53 +5701,53 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="14.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="D6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4371,20 +5761,20 @@
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="14.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -4398,16 +5788,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4420,23 +5810,23 @@
         <v>2</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.25">
-      <c r="A10" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="4"/>
@@ -4450,42 +5840,381 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="14.25">
-      <c r="A11" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" s="29">
+    <row r="11" spans="1:14" ht="14.25" hidden="1">
+      <c r="A11" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="28">
         <v>123</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <v>123</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>123</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <v>123</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-    </row>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.25">
+      <c r="A12" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.25">
+      <c r="A13" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.25">
+      <c r="A14" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.25">
+      <c r="A15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.25">
+      <c r="A16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="14.25">
+      <c r="A17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" ht="14.25">
+      <c r="A18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" ht="14.25">
+      <c r="A19" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" ht="14.25">
+      <c r="A20" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+    </row>
+    <row r="21" spans="1:14" ht="14.25">
+      <c r="A21" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+    </row>
+    <row r="22" spans="1:14" ht="14.25">
+      <c r="A22" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+    </row>
+    <row r="23" spans="1:14" ht="14.25">
+      <c r="A23" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="28" spans="1:14" ht="11.25" customHeight="1"/>
+    <row r="29" spans="1:14" hidden="1"/>
+    <row r="30" spans="1:14" hidden="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4495,10 +6224,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4511,133 +6240,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
-      <c r="A2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>93</v>
+      <c r="D3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>242</v>
+      <c r="D4" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>355</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
-      <c r="A6" s="10" t="s">
-        <v>225</v>
+      <c r="A6" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>95</v>
+      <c r="A7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
-      <c r="A8" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>97</v>
+      <c r="A8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D8" s="4">
         <v>123456</v>
@@ -4648,121 +6377,223 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
-      <c r="A10" s="10" t="s">
-        <v>137</v>
+      <c r="A10" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>80</v>
+      <c r="D10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
-      <c r="A11" s="10" t="s">
-        <v>137</v>
+      <c r="A11" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>155</v>
+      <c r="E11" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="27">
+        <v>123</v>
+      </c>
+      <c r="E15" s="27">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25">
+      <c r="A16" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25">
-      <c r="A15" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="E16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="28">
-        <v>123</v>
-      </c>
-      <c r="E15" s="28">
-        <v>123</v>
+    </row>
+    <row r="17" spans="1:5" ht="14.25">
+      <c r="A17" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25">
+      <c r="A18" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25">
+      <c r="A19" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25">
+      <c r="A20" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25">
+      <c r="A21" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -4774,6 +6605,8 @@
     <hyperlink ref="E14" r:id="rId4"/>
     <hyperlink ref="D4" r:id="rId5"/>
     <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="D20" r:id="rId7"/>
+    <hyperlink ref="E20" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4781,10 +6614,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4797,42 +6630,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="13">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>76</v>
       </c>
     </row>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="383">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1591,10 +1591,6 @@
   </si>
   <si>
     <t>172.16.16.235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyraudit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2663,7 +2659,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2880,12 +2876,10 @@
         <v>370</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="31" t="s">
-        <v>382</v>
-      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="384">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1591,6 +1591,10 @@
   </si>
   <si>
     <t>172.16.16.235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyraudit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2659,7 +2663,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2876,10 +2880,12 @@
         <v>370</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="31"/>
+      <c r="E10" s="31" t="s">
+        <v>382</v>
+      </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
